--- a/data/trans_orig/IP28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP28-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A14B459-34CA-43CD-BE09-DDC0EE5E7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41A9A11-B5CC-426D-A7E7-85ACB281B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37710374-2F5B-4CC4-A619-8EA20D189206}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA5E1367-3D9D-456A-A06C-0B8B0A7F6D68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="524">
   <si>
     <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -110,1495 +110,1507 @@
     <t>5,54%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>0,25%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>2,58%</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20442DC7-7FF8-442A-848E-A44772E3573E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AA5EA7-77AE-4DF6-8A50-40531C0663D8}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3003,7 +3015,7 @@
         <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3012,13 +3024,13 @@
         <v>7880</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3027,13 +3039,13 @@
         <v>18849</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3060,13 @@
         <v>639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3063,13 +3075,13 @@
         <v>1380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3078,13 +3090,13 @@
         <v>2019</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3164,13 @@
         <v>55115</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -3167,13 +3179,13 @@
         <v>42764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -3182,13 +3194,13 @@
         <v>97879</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3215,13 @@
         <v>595048</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>845</v>
@@ -3218,13 +3230,13 @@
         <v>565416</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>1738</v>
@@ -3233,13 +3245,13 @@
         <v>1160463</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3266,13 @@
         <v>56644</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -3269,13 +3281,13 @@
         <v>53501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -3287,10 +3299,10 @@
         <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3317,13 @@
         <v>8810</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3320,13 +3332,13 @@
         <v>8832</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -3338,10 +3350,10 @@
         <v>91</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3409,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C19897E-14CC-4995-A2F1-EC861AF88EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7637B10-3FAE-4B55-B798-54A07BDC5C01}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3434,7 +3446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,13 +3800,13 @@
         <v>8575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3803,13 +3815,13 @@
         <v>5656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3818,13 +3830,13 @@
         <v>14232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3851,13 @@
         <v>60499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -3854,13 +3866,13 @@
         <v>63224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -3869,13 +3881,13 @@
         <v>123723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3902,13 @@
         <v>5313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3905,13 +3917,13 @@
         <v>10875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -3920,13 +3932,13 @@
         <v>16188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3953,13 @@
         <v>1248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3956,13 +3968,13 @@
         <v>2795</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -3971,13 +3983,13 @@
         <v>4043</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4057,13 @@
         <v>32551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -4060,13 +4072,13 @@
         <v>24102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4075,13 +4087,13 @@
         <v>56653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4108,13 @@
         <v>362074</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H15" s="7">
         <v>470</v>
@@ -4111,13 +4123,13 @@
         <v>323867</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M15" s="7">
         <v>988</v>
@@ -4126,13 +4138,13 @@
         <v>685940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4159,13 @@
         <v>46669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4162,13 +4174,13 @@
         <v>52864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -4177,13 +4189,13 @@
         <v>99532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4210,13 @@
         <v>8063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4213,13 +4225,13 @@
         <v>8742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4228,13 +4240,13 @@
         <v>16805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4314,13 @@
         <v>10911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4317,13 +4329,13 @@
         <v>14320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4332,13 +4344,13 @@
         <v>25231</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4365,13 @@
         <v>140794</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -4368,13 +4380,13 @@
         <v>130259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
@@ -4383,13 +4395,13 @@
         <v>271054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4416,13 @@
         <v>9884</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4419,13 +4431,13 @@
         <v>8138</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -4434,13 +4446,13 @@
         <v>18021</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4467,13 @@
         <v>2108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4470,13 +4482,13 @@
         <v>1514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -4485,13 +4497,13 @@
         <v>3622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4571,13 @@
         <v>52037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -4574,13 +4586,13 @@
         <v>44079</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4589,13 +4601,13 @@
         <v>96115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4622,13 @@
         <v>564009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>748</v>
@@ -4625,13 +4637,13 @@
         <v>517350</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>1552</v>
@@ -4640,13 +4652,13 @@
         <v>1081358</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4673,13 @@
         <v>61866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -4676,13 +4688,13 @@
         <v>71876</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -4691,13 +4703,13 @@
         <v>133742</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4724,13 @@
         <v>11419</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H27" s="7">
         <v>18</v>
@@ -4727,13 +4739,13 @@
         <v>13052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -4742,13 +4754,13 @@
         <v>24471</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +4816,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4824,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BB469C-3B34-4B10-8B7F-0529C29BAAE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F937568-5C4E-47C4-BD0A-1F1879D2CCE0}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4841,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5175,13 +5187,13 @@
         <v>3556</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5190,13 +5202,13 @@
         <v>617</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5205,13 +5217,13 @@
         <v>4173</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5238,13 @@
         <v>53285</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5241,13 +5253,13 @@
         <v>41935</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -5256,13 +5268,13 @@
         <v>95219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5289,13 @@
         <v>2648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5292,13 +5304,13 @@
         <v>7144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -5307,13 +5319,13 @@
         <v>9792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5340,7 @@
         <v>1326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
@@ -5432,13 +5444,13 @@
         <v>27449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5447,13 +5459,13 @@
         <v>12441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5462,13 +5474,13 @@
         <v>39889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5495,13 @@
         <v>374689</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H15" s="7">
         <v>574</v>
@@ -5498,13 +5510,13 @@
         <v>380250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M15" s="7">
         <v>1107</v>
@@ -5513,13 +5525,13 @@
         <v>754940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,10 +5549,10 @@
         <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5549,13 +5561,13 @@
         <v>28844</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -5564,13 +5576,13 @@
         <v>59402</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5597,13 @@
         <v>4710</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5603,10 +5615,10 @@
         <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5615,13 +5627,13 @@
         <v>8986</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5701,13 @@
         <v>8411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5704,13 +5716,13 @@
         <v>11224</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -5719,13 +5731,13 @@
         <v>19635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5752,13 @@
         <v>146882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -5755,13 +5767,13 @@
         <v>133972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -5770,13 +5782,13 @@
         <v>280854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5803,13 @@
         <v>13259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -5806,13 +5818,13 @@
         <v>10423</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -5821,13 +5833,13 @@
         <v>23682</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5854,13 @@
         <v>626</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5857,13 +5869,13 @@
         <v>1343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5872,13 +5884,13 @@
         <v>1969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5958,13 @@
         <v>39415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -5961,13 +5973,13 @@
         <v>24282</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -5976,13 +5988,13 @@
         <v>63697</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6009,13 @@
         <v>574856</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H25" s="7">
         <v>835</v>
@@ -6012,13 +6024,13 @@
         <v>556157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M25" s="7">
         <v>1657</v>
@@ -6027,13 +6039,13 @@
         <v>1131013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6060,13 @@
         <v>46465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -6063,13 +6075,13 @@
         <v>46411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -6078,13 +6090,13 @@
         <v>92876</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,10 +6114,10 @@
         <v>347</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -6114,13 +6126,13 @@
         <v>6372</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -6132,10 +6144,10 @@
         <v>347</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6203,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6211,7 +6223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262521BE-51EE-4B31-A70D-60DE71F51821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC0C400-6EB6-4C26-B5C3-ECD12777B007}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6228,7 +6240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6582,13 +6594,13 @@
         <v>4938</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6597,13 +6609,13 @@
         <v>6034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -6612,10 +6624,10 @@
         <v>10971</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>417</v>
@@ -6654,7 +6666,7 @@
         <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -6663,13 +6675,13 @@
         <v>88989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6696,13 @@
         <v>5915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -6699,13 +6711,13 @@
         <v>2830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -6717,10 +6729,10 @@
         <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6747,13 @@
         <v>1254</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6756,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6765,13 +6777,13 @@
         <v>1254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6851,13 @@
         <v>43053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -6854,13 +6866,13 @@
         <v>33066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -6869,13 +6881,13 @@
         <v>76119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6902,13 @@
         <v>398663</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H15" s="7">
         <v>541</v>
@@ -6905,13 +6917,13 @@
         <v>376231</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M15" s="7">
         <v>1082</v>
@@ -6920,13 +6932,13 @@
         <v>774895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,10 +6953,10 @@
         <v>43473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>454</v>
@@ -6962,7 +6974,7 @@
         <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -6971,13 +6983,13 @@
         <v>72687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7004,13 @@
         <v>4993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -7007,13 +7019,13 @@
         <v>7827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -7022,13 +7034,13 @@
         <v>12820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7108,13 @@
         <v>17229</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7111,13 +7123,13 @@
         <v>18101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -7126,13 +7138,13 @@
         <v>35329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7159,13 @@
         <v>149275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7162,13 +7174,13 @@
         <v>121268</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -7177,13 +7189,13 @@
         <v>270543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7210,13 @@
         <v>5772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -7213,13 +7225,13 @@
         <v>10228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -7228,13 +7240,13 @@
         <v>15999</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7261,13 @@
         <v>912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7264,13 +7276,13 @@
         <v>1774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7279,13 +7291,13 @@
         <v>2686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7365,13 @@
         <v>65219</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -7368,13 +7380,13 @@
         <v>57200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -7383,13 +7395,13 @@
         <v>122420</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7416,13 @@
         <v>594590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>786</v>
@@ -7419,13 +7431,13 @@
         <v>539837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>1598</v>
@@ -7434,13 +7446,13 @@
         <v>1134427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7467,13 @@
         <v>55160</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -7470,13 +7482,13 @@
         <v>43442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -7485,13 +7497,13 @@
         <v>98602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>518</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7518,13 @@
         <v>7158</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -7521,13 +7533,13 @@
         <v>9601</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>116</v>
+        <v>523</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -7536,13 +7548,13 @@
         <v>16759</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>92</v>
+        <v>465</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,7 +7610,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
